--- a/misc/translations/en_fr_elements_to_update.xlsx
+++ b/misc/translations/en_fr_elements_to_update.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C216"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,11 +481,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -498,11 +493,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -515,11 +505,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -640,11 +625,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -657,11 +637,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -830,11 +805,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -967,11 +937,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1176,11 +1141,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1217,11 +1177,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1270,11 +1225,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1287,11 +1237,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1328,11 +1273,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1429,11 +1369,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1446,11 +1381,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1631,11 +1561,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1936,11 +1861,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -1965,11 +1885,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2042,11 +1957,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2071,11 +1981,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2184,11 +2089,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2213,11 +2113,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2242,11 +2137,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2259,11 +2149,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2276,11 +2161,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2293,11 +2173,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2310,11 +2185,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2327,11 +2197,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2356,11 +2221,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2505,11 +2365,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -2570,11 +2425,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -2635,11 +2485,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -2652,11 +2497,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -2669,11 +2509,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -2696,601 +2531,6 @@
       <c r="B181" t="inlineStr">
         <is>
           <t>Enregistrements dans les données de laboratoire et les formulaires BSI:</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>What is ACORN?</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Qu'est ce qu'ACORN ?</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>About</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>À Propos</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Site</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Site</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>To log out, close the app.</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Quitter l'application pour se déconnecter.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>upload a local acorn file.</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>téléverser un fichier acorn.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>The REDCap dataset contains data.</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Le fichier téléchargé de REDCap contient des données.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>The REDCap dataset is empty. Please contact ACORN support.</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Les données REDCap sont vides. Merci de contacter l'équipe ACORN.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>The REDCap dataset column names do not match. Please contact ACORN support.</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Les colonnes des données REDCap ne correspondent pas. Merci de contacter l'équipe ACORN.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>The REDCap dataset column names match.</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Les colonnes des données REDCap correspondent.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Clinical data successfully provided.</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Les données clinique ont bien été fournies</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Clinical data not provided</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Données clinique non fournies</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Lab data not provided</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Données de laboratoire non fournies</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>No .acorn has been generated</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Aucun .acorn n'a été généré</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>No .acorn has been saved</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Aucun .acorn n'a été sauvé.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Generate .acorn from clinical and lab data</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Générer .acorn depuis les données clinique et de laboratoire</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Load existing .acorn from cloud</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Charger un .acorn depuis un serveur</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Load existing .acorn from local file</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Charger un .acorn à partir d'un fichier local</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Critical issue detected: no data or wrong data format on REDCap server. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Problème critique détecté : pas de données ou format de données incorrect sur le serveur REDCap. Merci de rapporter ce message au data manager ACORN. En attendant de trouver une solution, seul les fichiers .acorn existant peuvent être utilisés.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Successfully saved .acorn file locally. You can now explore acorn data.</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Fichier .acorn sauvegardé locallement. Vous pouvez maintenant explorer les données acorn.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Specimens, Isolates</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Spécimens, Isolats</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Problem with credentials. Please contact ACORN support.</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Problème avec les identifiants. Merci de contacter l'équipe ACORN.</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Blood Culture</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Hématoculture</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Other Specimens:</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Autres Spécimens :</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>No deduplication of isolates</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Pas de déduplication des isolats</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Deduplication by patient-episode</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Déduplication par patient-épisode</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Deduplication by patient ID</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Déduplication par patient ID</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Use heuristic for time unit</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Heuristique pour déterminer l'unité de temps</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Display by month</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Afficher par mois</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Display by year</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Afficher par année</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>We couldn't download the lab data dictionary. Please contact ACORN support.</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Le dictionnaire des données de lab ne peut pas être téléchargé. Merci de contacter l'équipe ACORN.</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>REDCap data could not be downloaded. Please try again.</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Les données REDCap n'ont pas pu être télécharger. Merci d'essayer à nouveau.</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>All records have an ACORN ID.</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Tous les éléments ont une ACORN ID.</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Not all records have an ACORN ID.</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Certains éléments n'ont pas d'ACORN ID</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>There are no atypical case (one CAI / early HAI but no overlap).</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Il n'y as pas de cas atypique (une CAI / HAI très tôt mais pas de simultanéité)</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>The following 'patient id' are atypical cases (one CAI / early HAI but no overlap):</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Les 'patient id' suivant sont des cas atypiques (une CAI / HAI très tôt mais pas de simultanéité) :</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>deleted</t>
         </is>
       </c>
     </row>

--- a/misc/translations/en_fr_elements_to_update.xlsx
+++ b/misc/translations/en_fr_elements_to_update.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,487 +478,487 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>(Pour vous déconnecter, fermer l'app.)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ACORN data is not of the right format. Only data generated with v2.1 (or later versions) is compatible.</t>
+          <t>ACORN Participating Countries</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Pays Participants au Projet ACORN</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ACORN data is not of the right format. Only data generated with v2.1 is compatible.</t>
+          <t>All 'orgname' are provided.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tous les 'orgname' sont fournis.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ACORN Participating Countries</t>
+          <t>All 'patid' are provided.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pays Participants au Projet ACORN</t>
+          <t>Tous les 'patid' sont fournis.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>All 'orgname' are provided.</t>
+          <t>All 'specdate' are provided.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tous les 'orgname' sont fournis.</t>
+          <t>Tous les 'specdate' sont fournis.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>All 'patid' are provided.</t>
+          <t>All 'specdate' are today or before today.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tous les 'patid' sont fournis.</t>
+          <t>Tous les 'specdate' sont égales ou antérieures à aujourd'hui.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>All 'specdate' are provided.</t>
+          <t>All 'specgroup' are provided.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tous les 'specdate' sont fournis.</t>
+          <t>Tous les 'specgroup' sont fournis.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>All 'specdate' are today or before today.</t>
+          <t>All 'specid' are provided.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tous les 'specdate' sont égales ou antérieures à aujourd'hui.</t>
+          <t>Tous les 'specid' sont fournis.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>All 'specgroup' are provided.</t>
+          <t>All dates of enrolment for HAI patients have a matching date in the HAI survey dataset</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tous les 'specgroup' sont fournis.</t>
+          <t>Toutes les dates d'enrôlements de patients avec une HAI se trouvent dans le jeu de données d'études de HAI.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>All 'specid' are provided.</t>
+          <t>All Other Organisms</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tous les 'specid' sont fournis.</t>
+          <t>Tous les Autres Organismes</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>All dates of enrolment for HAI patients have a matching date in the HAI survey dataset</t>
+          <t>All valid records have an ACORN ID.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Toutes les dates d'enrôlements de patients avec une HAI se trouvent dans le jeu de données d'études de HAI.</t>
+          <t>Tous les enregistrements valides ont une ID ACORN.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>All Other Organisms</t>
+          <t>AMR</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tous les Autres Organismes</t>
+          <t>AMR</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>All valid records have an ACORN ID.</t>
+          <t>and generate enrolment log.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>et générer un fichier de suivi des recrutements.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AMR</t>
+          <t>Attempting to connect.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tentative de connection.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>and generate enrolment log.</t>
+          <t>Blood culture collected within 24 hours of admission (CAI) / symptom onset (HAI)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>et générer un fichier de suivi des recrutements.</t>
+          <t>Hémoculture collectée dans les 24 heures d'admission (CAI) / au début des symptômes (HAI)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Attempting to connect.</t>
+          <t>Blood Culture Contaminants</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tentative de connection.</t>
+          <t>Contaminants d'Hémoculture</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Blood culture collected within 24 hours of admission (CAI) / symptom onset (HAI)</t>
+          <t>Bloodstream Infection (BSI)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hémoculture collectée dans les 24 heures d'admission (CAI) / au début des symptômes (HAI)</t>
+          <t>Infection du Sang (BSI)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Blood Culture Contaminants</t>
+          <t>Calculated age is consistent with 'Age Category'</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Contaminants d'Hémoculture</t>
+          <t>L'âge calculé est cohérent avec la catégorie d'âge.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bloodstream Infection (BSI)</t>
+          <t>Calculated age isn't always consistent with 'Age Category'</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Infection du Sang (BSI)</t>
+          <t>L'âge calculé n'est pas toujours cohérent avec la catégorie d'âge.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Calculated age is consistent with 'Age Category'</t>
+          <t>Cancel</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>L'âge calculé est cohérent avec la catégorie d'âge.</t>
+          <t>Annuler</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Calculated age isn't always consistent with 'Age Category'</t>
+          <t>Care should be taken when interpreting rates and AMR profiles where there are small numbers of cases or bacterial isolates: point estimates may be unreliable.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>L'âge calculé n'est pas toujours cohérent avec la catégorie d'âge.</t>
+          <t>L'interprétation des taux et profils AMR doit prêter à caution lorsqu'en présence d'un petit nombre de cas ou d'isolats : les estimations sont alors peu fiable.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Cancel</t>
+          <t>Clinical and day-28 outcomes are consistent.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Annuler</t>
+          <t>Les résultats cliniques et du jour 28 sont cohérents.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Care should be taken when interpreting rates and AMR profiles where there are small numbers of cases or bacterial isolates: point estimates may be unreliable.</t>
+          <t>Clinical and day-28 outcomes aren't consistent for some dead patients.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>L'interprétation des taux et profils AMR doit prêter à caution lorsqu'en présence d'un petit nombre de cas ou d'isolats : les estimations sont alors peu fiable.</t>
+          <t>Pour certains patients décédés, les résultats cliniques et du jour 28 ne sont pas cohérents.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Clinical and day-28 outcomes are consistent.</t>
+          <t>Clinical Outcome</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Les résultats cliniques et du jour 28 sont cohérents.</t>
+          <t>Résultat Clinique</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Clinical and day-28 outcomes aren't consistent for some dead patients.</t>
+          <t>Clinical Outcome Status:</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pour certains patients décédés, les résultats cliniques et du jour 28 ne sont pas cohérents.</t>
+          <t>Statut des résultats cliniques:</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Clinical Outcome</t>
+          <t>Co-resistances</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Résultat Clinique</t>
+          <t>Co-résistances</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Clinical Outcome Status:</t>
+          <t>Combine Susceptible + Intermediate</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Statut des résultats cliniques:</t>
+          <t>Combiner Susceptible + Intermédiaire</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Co-resistances</t>
+          <t>Consider saving .acorn file on the cloud for additional security.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Pour plus de sécurité, envisagez une sauvegarde des données sur un serveur.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Combine Susceptible + Intermediate</t>
+          <t>Contains names of organisms before and after mapping.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Combiner Susceptible + Intermédiaire</t>
+          <t>Contient les noms des organismes avant et après cartorgraphie.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Consider saving .acorn file on the cloud for additional security.</t>
+          <t>Couldn't connect to server. Please check internet access.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pour plus de sécurité, envisagez une sauvegarde des données sur un serveur.</t>
+          <t>Il n'est pas possible de se connecter au server. Veuillez vérifier la connection à internet</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Couldn't connect to server. Please check internet access.</t>
+          <t>Critical errors with clinical data.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Il n'est pas possible de se connecter au server. Veuillez vérifier la connection à internet</t>
+          <t>Erreurs critiques avec les données cliniques.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Critical errors with clinical data.</t>
+          <t>Culture results per specimen type</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Erreurs critiques avec les données cliniques.</t>
+          <t>Résultats de culture par type de spécimen</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Culture results per specimen type</t>
+          <t>Data Management</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Résultats de culture par type de spécimen</t>
+          <t>Gestion des Données</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Data Management</t>
+          <t>Date of Enrolment</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Gestion des Données</t>
+          <t>Date d'Enrôlement</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Date of Enrolment</t>
+          <t>Day 28</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Date d'Enrôlement</t>
+          <t>Jour 28</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Day 28</t>
+          <t>Day 28 Status:</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Jour 28</t>
+          <t>Statut au jour 28:</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Day 28 Status:</t>
+          <t>Diagnosis at Enrolment</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Statut au jour 28:</t>
+          <t>Diagnostics à l'Enrôlement</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Diagnosis at Enrolment</t>
+          <t>Dismiss</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Diagnostics à l'Enrôlement</t>
+          <t>Annuler</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Dismiss</t>
+          <t>Distribution of Enrolments</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Distribution des Enrôlements</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Distribution of Enrolments</t>
+          <t>Download Enrolment Log (.xlsx)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Distribution des Enrôlements</t>
+          <t>Télécharger un fichier de suivi des recrutements (.xlsx)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Download Enrolment Log (.xlsx)</t>
+          <t>Download Lab Log (.xlsx)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Télécharger un fichier de suivi des recrutements (.xlsx)</t>
+          <t>Télécharger un log du traitement des donnés de lab (.xlsx)</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Générer un fichier .acorn depuis les données cliniques et de lab</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Obtenir la dernière version stable</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HAI point prevalence by type of ward</t>
+          <t xml:space="preserve">HAI point prevalence by </t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Prévalence des HAI par service</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1227,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Les barres horizontales indiquent la taille d'un ensemble de résultats SR tandis que les barres verticales indiquent le nombre d'isolats résistants pour l'antibiotique correspondant.</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1239,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Information sur le fichier .acorn chargé.</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1275,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Problème détecté avec les données REDCap. Merci de contacter l'équipe ACORN. Jusqu'à résolution, seuls les fichiers .acorn existants peuvent être utilisés.</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1371,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Charger le fichier .acorn depuis le nuage</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1383,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Charger le fichier .acorn localement</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1563,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Seuls les isolats qui ont été testés contre tous les médicaments sont inclus dans le graphique.</t>
         </is>
       </c>
     </row>
@@ -1673,180 +1678,180 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Remove blood culture contaminants from the following visualizations</t>
+          <t>Remove 'Not Cultured' specimens</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Élimine les contaminants d'hémoculture des visualisations ci-dessous</t>
+          <t>Supprimer les spécimens 'Not Cultured'</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Reset Enrolments Filters</t>
+          <t>Remove blood culture contaminants from the following visualizations</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Réinitialiser les Filtres sur les Enrôlements</t>
+          <t>Élimine les contaminants d'hémoculture des visualisations ci-dessous</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
+          <t>Reset Enrolments Filters</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux 3rd gen. Cephalosporins</t>
+          <t>Réinitialiser les Filtres sur les Enrôlements</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Resistance to Carbapenems Over Time</t>
+          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux Carbapenems</t>
+          <t>Evolution de la Résistance aux 3rd gen. Cephalosporins</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Resistance to Fluoroquinolones Over Time</t>
+          <t>Resistance to Carbapenems Over Time</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux Fluoroquinolones</t>
+          <t>Evolution de la Résistance aux Carbapenems</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Resistance to Oxacillin Over Time</t>
+          <t>Resistance to Fluoroquinolones Over Time</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux Oxacillin</t>
+          <t>Evolution de la Résistance aux Fluoroquinolones</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G - meningitis Over Time</t>
+          <t>Resistance to Oxacillin Over Time</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux Penicillin G - meningitis</t>
+          <t>Evolution de la Résistance aux Oxacillin</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G Over Time</t>
+          <t>Resistance to Penicillin G - meningitis Over Time</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux Penicillin G</t>
+          <t>Evolution de la Résistance aux Penicillin G - meningitis</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Retriving data from REDCap server.</t>
+          <t>Resistance to Penicillin G Over Time</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Récupération des données depuis le serveur REDcap.</t>
+          <t>Evolution de la Résistance aux Penicillin G</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Save .acorn file</t>
+          <t>Retriving data from REDCap server.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Sauvegarder un ficher .acorn</t>
+          <t>Récupération des données depuis le serveur REDcap.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Save acorn data</t>
+          <t>Save .acorn file</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Sauvegarder des données acorn</t>
+          <t>Sauvegarder un ficher .acorn</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Save on Server</t>
+          <t>Save acorn data</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Sauvegarder sur serveur</t>
+          <t>Sauvegarder des données acorn</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>See Breakdown by Ward</t>
+          <t>Save on Server</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Montrer la Répartition par Service</t>
+          <t>Sauvegarder sur serveur</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>See by Week</t>
+          <t>See Breakdown by Ward</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Montrer par Semaine</t>
+          <t>Montrer la Répartition par Service</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Select lab data format:</t>
+          <t>See by Week</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Choisir le format des données de laboratoire</t>
+          <t>Montrer par Semaine</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1863,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Montrer les combinaisons d'antibiotiques.</t>
         </is>
       </c>
     </row>
@@ -1882,7 +1887,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Evaluation SIR</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1959,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Certains enregistrements ont un identifiant ACORN manquant. Ces enregistrements ont été supprimés.</t>
         </is>
       </c>
     </row>
@@ -1978,7 +1983,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Spécimens</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2091,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Susceptible &amp; Intermédiaire sont toujours combinés dans cette visualisation des co-résistances.</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2115,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Les « identifiants de patient » suivants sont des cas atypiques (un HCAI/CAI avec HAI précoce mais sans chevauchement) :</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2139,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Le jeu de données REDCap est vide/au mauvais format. Veuillez contacter l'assistance ACORN.</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2151,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Le jeu de données REDCap est au bon format.</t>
         </is>
       </c>
     </row>
@@ -2158,7 +2163,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Il y a des suivis à J28 effectués avant la date prévue à J28.</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2175,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Il existe plusieurs F02 avec un ID ACORN, une date d'admission et une date d'enrôlement identiques.</t>
         </is>
       </c>
     </row>
@@ -2182,7 +2187,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Il n'y a pas de cas atypique (un HCAI/CAI avec HAI précoce mais pas de chevauchement).</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2199,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Il n'y a pas de suivi à J28 effectué avant la date prévue à J28.</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2223,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Il n'existe pas de F02 avec un ID ACORN, une date d'admission et une date d'enrôlement identiques.</t>
         </is>
       </c>
     </row>
@@ -2362,7 +2367,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Updated Charlson Comorbidity Index (uCCI)</t>
         </is>
       </c>
     </row>
@@ -2422,7 +2427,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Le dictionnaire des données de lab ne peut pas être téléchargé. Merci de contacter l'équipe ACORN.</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2487,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Vous utilisez le tableau de bord ACORN</t>
         </is>
       </c>
     </row>
@@ -2494,7 +2499,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Vous pouvez vérifier ici s'il s'agit de la dernière version de production.</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2511,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Votre tableau de bord ACORN est à jour</t>
         </is>
       </c>
     </row>
@@ -2531,6 +2536,57 @@
       <c r="B181" t="inlineStr">
         <is>
           <t>Enregistrements dans les données de laboratoire et les formulaires BSI:</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>ACORN data is not of the right format. Only data generated with v2.1 (or later versions) is compatible.</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>ACORN data is not of the right format. Only data generated with v2.1 is compatible.</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>HAI point prevalence by</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Point prévalence HAI par</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>deleted</t>
         </is>
       </c>
     </row>

--- a/misc/translations/en_fr_elements_to_update.xlsx
+++ b/misc/translations/en_fr_elements_to_update.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C184"/>
+  <dimension ref="A1:C185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1251,1315 +1251,1315 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Diagnostic de surveillance initial et final</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Isolates</t>
+          <t>Initial and Final Surveillance Diagnosis</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Isolats</t>
+          <t>Diagnostic de surveillance initial et final</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
+          <t>Isolates</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Problème détecté avec les données REDCap. Merci de contacter l'équipe ACORN. Jusqu'à résolution, seuls les fichiers .acorn existants peuvent être utilisés.</t>
+          <t>Isolats</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>It might take a couple of minutes. This window will close on completion.</t>
+          <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cela peut prendre plusieurs minutes. Cette fenêtre se fermera automatiquement.</t>
+          <t>Problème détecté avec les données REDCap. Merci de contacter l'équipe ACORN. Jusqu'à résolution, seuls les fichiers .acorn existants peuvent être utilisés.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Lab data successfully processed!</t>
+          <t>It might take a couple of minutes. This window will close on completion.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Traitement des données de lab achevé avec succès !</t>
+          <t>Cela peut prendre plusieurs minutes. Cette fenêtre se fermera automatiquement.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Lab data successfully provided.</t>
+          <t>Lab data successfully processed!</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Les données de laboratoire ont été fournies avec succès.</t>
+          <t>Traitement des données de lab achevé avec succès !</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Lab dataset contains the minimal columns.</t>
+          <t>Lab data successfully provided.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Le jeu de données de lab contient les colonnes minimales requises.</t>
+          <t>Les données de laboratoire ont été fournies avec succès.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Lab dataset does not contains the minimal columns.</t>
+          <t>Lab dataset contains the minimal columns.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Le jeu de données de lab ne contient pas les colonnes minimales requises.</t>
+          <t>Le jeu de données de lab contient les colonnes minimales requises.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Language</t>
+          <t>Lab dataset does not contains the minimal columns.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Langue</t>
+          <t>Le jeu de données de lab ne contient pas les colonnes minimales requises.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Load .acorn</t>
+          <t>Language</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Charger le fichier .acorn</t>
+          <t>Langue</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Load .acorn from cloud</t>
+          <t>Load .acorn</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Charger le fichier .acorn depuis le nuage</t>
+          <t>Charger le fichier .acorn</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Load .acorn from local file</t>
+          <t>Load .acorn from cloud</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Charger le fichier .acorn localement</t>
+          <t>Charger le fichier .acorn depuis le nuage</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Load selected .acorn</t>
+          <t>Load .acorn from local file</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Charger le fichier .acorn sélectionné</t>
+          <t>Charger le fichier .acorn localement</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Loading data.</t>
+          <t>Load selected .acorn</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Chargement des données.</t>
+          <t>Charger le fichier .acorn sélectionné</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Log in</t>
+          <t>Loading data.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Se connecter</t>
+          <t>Chargement des données.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Microbiology</t>
+          <t>Log in</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Microbiologie</t>
+          <t>Se connecter</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
+          <t>Microbiology</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Les 10 organismes les plus nombreux sont dans le graphique et la liste complète dans la tables. Les contaminants sont en rouge.</t>
+          <t>Microbiologie</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>No .acorn data loaded.</t>
+          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Aucun fichier .acorn n'a été chargé.</t>
+          <t>Les 10 organismes les plus nombreux sont dans le graphique et la liste complète dans la tables. Les contaminants sont en rouge.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>No Blood Culture</t>
+          <t>No .acorn data loaded.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Pas d'Hématoculture</t>
+          <t>Aucun fichier .acorn n'a été chargé.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Not connected to internet.</t>
+          <t>No Blood Culture</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Pas de connection à internet détecté.</t>
+          <t>Pas d'Hématoculture</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Number of specimens per specimen type</t>
+          <t>Not connected to internet.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Nombre de specimens par type de specimen</t>
+          <t>Pas de connection à internet détecté.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Occupancy rate per type of ward per month</t>
+          <t>Number of specimens per specimen type</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Taux d'occupation par type de service et par mois</t>
+          <t>Nombre de specimens par type de specimen</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>of blood cultures grew a potential contaminant.</t>
+          <t>Occupancy rate per type of ward per month</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>des hémocultures ont générées un contaminant potentiel.</t>
+          <t>Taux d'occupation par type de service et par mois</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>of cultures have growth.</t>
+          <t>of blood cultures grew a potential contaminant.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>des cultures avec croissance.</t>
+          <t>des hémocultures ont générées un contaminant potentiel.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>of enrolments with blood culture.</t>
+          <t>of cultures have growth.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>des enrôlements avec hémoculture.</t>
+          <t>des cultures avec croissance.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>of Target Pathogens</t>
+          <t>of enrolments with blood culture.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>des Pathogènes Cibles</t>
+          <t>des enrôlements avec hémoculture.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
+          <t>of Target Pathogens</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Seuls les isolats qui ont été testés contre tous les médicaments sont inclus dans le graphique.</t>
+          <t>des Pathogènes Cibles</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Aperçu</t>
+          <t>Seuls les isolats qui ont été testés contre tous les médicaments sont inclus dans le graphique.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Password</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Mot de passe</t>
+          <t>Aperçu</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Patient Age Distribution</t>
+          <t>Password</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Distribution des ages des patients</t>
+          <t>Mot de passe</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Patient Comorbidities</t>
+          <t>Patient Age Distribution</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Comorbiditées</t>
+          <t>Distribution des ages des patients</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Patient enrolments</t>
+          <t>Patient Comorbidities</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Enrôlements</t>
+          <t>Comorbiditées</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Patients Transferred</t>
+          <t>Patient enrolments</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Patients Transferrés</t>
+          <t>Enrôlements</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Please log in</t>
+          <t>Patients Transferred</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Connection</t>
+          <t>Patients Transferrés</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Processing lab data.</t>
+          <t>Please log in</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Traitement des données de lab.</t>
+          <t>Connection</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Reading lab data.</t>
+          <t>Processing lab data.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Lecture des données de lab.</t>
+          <t>Traitement des données de lab.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Remove 'Not Cultured' specimens</t>
+          <t>Reading lab data.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Supprimer les spécimens 'Not Cultured'</t>
+          <t>Lecture des données de lab.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Remove blood culture contaminants from the following visualizations</t>
+          <t>Remove 'Not Cultured' specimens</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Élimine les contaminants d'hémoculture des visualisations ci-dessous</t>
+          <t>Supprimer les spécimens 'Not Cultured'</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Reset Enrolments Filters</t>
+          <t>Remove blood culture contaminants from the following visualizations</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Réinitialiser les Filtres sur les Enrôlements</t>
+          <t>Élimine les contaminants d'hémoculture des visualisations ci-dessous</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
+          <t>Reset Enrolments Filters</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux 3rd gen. Cephalosporins</t>
+          <t>Réinitialiser les Filtres sur les Enrôlements</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Resistance to Carbapenems Over Time</t>
+          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux Carbapenems</t>
+          <t>Evolution de la Résistance aux 3rd gen. Cephalosporins</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Resistance to Fluoroquinolones Over Time</t>
+          <t>Resistance to Carbapenems Over Time</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux Fluoroquinolones</t>
+          <t>Evolution de la Résistance aux Carbapenems</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Resistance to Oxacillin Over Time</t>
+          <t>Resistance to Fluoroquinolones Over Time</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux Oxacillin</t>
+          <t>Evolution de la Résistance aux Fluoroquinolones</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G - meningitis Over Time</t>
+          <t>Resistance to Oxacillin Over Time</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux Penicillin G - meningitis</t>
+          <t>Evolution de la Résistance aux Oxacillin</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G Over Time</t>
+          <t>Resistance to Penicillin G - meningitis Over Time</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux Penicillin G</t>
+          <t>Evolution de la Résistance aux Penicillin G - meningitis</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Retriving data from REDCap server.</t>
+          <t>Resistance to Penicillin G Over Time</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Récupération des données depuis le serveur REDcap.</t>
+          <t>Evolution de la Résistance aux Penicillin G</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Save .acorn file</t>
+          <t>Retriving data from REDCap server.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Sauvegarder un ficher .acorn</t>
+          <t>Récupération des données depuis le serveur REDcap.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Save acorn data</t>
+          <t>Save .acorn file</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Sauvegarder des données acorn</t>
+          <t>Sauvegarder un ficher .acorn</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Save on Server</t>
+          <t>Save acorn data</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Sauvegarder sur serveur</t>
+          <t>Sauvegarder des données acorn</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>See Breakdown by Ward</t>
+          <t>Save on Server</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Montrer la Répartition par Service</t>
+          <t>Sauvegarder sur serveur</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>See by Week</t>
+          <t>See Breakdown by Ward</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Montrer par Semaine</t>
+          <t>Montrer la Répartition par Service</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Show antibiotics combinations</t>
+          <t>See by Week</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Montrer les combinaisons d'antibiotiques.</t>
+          <t>Montrer par Semaine</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Show comorbidities combinations</t>
+          <t>Show antibiotics combinations</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Montrer les combinaisons de comorbiditées</t>
+          <t>Montrer les combinaisons d'antibiotiques.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SIR Evaluation</t>
+          <t>Show comorbidities combinations</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Evaluation SIR</t>
+          <t>Montrer les combinaisons de comorbiditées</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
+          <t>SIR Evaluation</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Certains enregistrements D28 (F04) n'ont pas un enrôlement de patient (F01) correspondant.</t>
+          <t>Evaluation SIR</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
+          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Certaines dates d'enrôlements de patients avec une HAI ne se trouvent pas dans le jeu de données d'études de HAI.</t>
+          <t>Certains enregistrements D28 (F04) n'ont pas un enrôlement de patient (F01) correspondant.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
+          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Certains enregistrements de résultats hospitaliers (F03) ne correspondent à aucun un épisode infectieux (F02).</t>
+          <t>Certaines dates d'enrôlements de patients avec une HAI ne se trouvent pas dans le jeu de données d'études de HAI.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
+          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Certains enregistrements de résultats hospitaliers (F03) ne correspondent à aucun enrôlement de patient (F01)</t>
+          <t>Certains enregistrements de résultats hospitaliers (F03) ne correspondent à aucun un épisode infectieux (F02).</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
+          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Certains enregistrements d'épisode infectieux (F02) ne correspondent à aucun enrôlement de patient (F01). Ces enregistrements ont été supprimés.</t>
+          <t>Certains enregistrements de résultats hospitaliers (F03) ne correspondent à aucun enrôlement de patient (F01)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Some records with a missing ACORN ID. These records have been removed.</t>
+          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Certains enregistrements ont un identifiant ACORN manquant. Ces enregistrements ont été supprimés.</t>
+          <t>Certains enregistrements d'épisode infectieux (F02) ne correspondent à aucun enrôlement de patient (F01). Ces enregistrements ont été supprimés.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Specimen Types</t>
+          <t>Some records with a missing ACORN ID. These records have been removed.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Types de Specimen</t>
+          <t>Certains enregistrements ont un identifiant ACORN manquant. Ces enregistrements ont été supprimés.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Specimens</t>
+          <t>Specimen Types</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Spécimens</t>
+          <t>Types de Specimen</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Specimens Collected</t>
+          <t>Specimens</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Spécimens Recueillis</t>
+          <t>Spécimens</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>specimens per enrolment</t>
+          <t>Specimens Collected</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>spécimens par enrôlement</t>
+          <t>Spécimens Recueillis</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Successfully combined clinical and lab data into .acorn file</t>
+          <t>specimens per enrolment</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Les données cliniques et de laboratoire ont bien été combinées dans un fichier .acorn</t>
+          <t>spécimens par enrôlement</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Successfully loaded data.</t>
+          <t>Successfully combined clinical and lab data into .acorn file</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Chargement des données réalisé avec succès.</t>
+          <t>Les données cliniques et de laboratoire ont bien été combinées dans un fichier .acorn</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Successfully logged in.</t>
+          <t>Successfully loaded data.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Connection réussie.</t>
+          <t>Chargement des données réalisé avec succès.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
+          <t>Successfully logged in.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Fichier .acorn sauvegardé sur le serveur. Vous pouvez maintenant explorer les données acorn.</t>
+          <t>Connection réussie.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file locally.</t>
+          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Fichier .acorn sauvegardé locallement.</t>
+          <t>Fichier .acorn sauvegardé sur le serveur. Vous pouvez maintenant explorer les données acorn.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Supply first valid clinical and lab data.</t>
+          <t>Successfully saved .acorn file locally.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Fournir en premier lieu des données clinique et de lab valides.</t>
+          <t>Fichier .acorn sauvegardé locallement.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Susceptible &amp; Intermediate are always combined in this visualisation of co-resistances.</t>
+          <t>Supply first valid clinical and lab data.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Susceptible &amp; Intermédiaire sont toujours combinés dans cette visualisation des co-résistances.</t>
+          <t>Fournir en premier lieu des données clinique et de lab valides.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>The 10 most common initial-final diagnosis combinations:</t>
+          <t>Susceptible and Intermediate are always combined in this visualisation of co-resistances.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Les 10 combinaisons de diagnostic initial-final les plus courantes :</t>
+          <t>Susceptible et Intermédiaire sont toujours combinés dans cette visualisation des co-résistances.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
+          <t>The 10 most common initial-final diagnosis combinations:</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Les « identifiants de patient » suivants sont des cas atypiques (un HCAI/CAI avec HAI précoce mais sans chevauchement) :</t>
+          <t>Les 10 combinaisons de diagnostic initial-final les plus courantes :</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
+          <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Les 'patient id' suivant sont des cas problématiques (fenêtre de collection de spécimens qui se chevauchent)</t>
+          <t>Les « identifiants de patient » suivants sont des cas atypiques (un HCAI/CAI avec HAI précoce mais sans chevauchement) :</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
+          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Le jeu de données REDCap est vide/au mauvais format. Veuillez contacter l'assistance ACORN.</t>
+          <t>Les 'patient id' suivant sont des cas problématiques (fenêtre de collection de spécimens qui se chevauchent)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>The REDCap dataset is in the right format.</t>
+          <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Le jeu de données REDCap est au bon format.</t>
+          <t>Le jeu de données REDCap est vide/au mauvais format. Veuillez contacter l'assistance ACORN.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>There are D28 follow-up done before the expected D28 date.</t>
+          <t>The REDCap dataset is in the right format.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Il y a des suivis à J28 effectués avant la date prévue à J28.</t>
+          <t>Le jeu de données REDCap est au bon format.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
+          <t>There are D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Il existe plusieurs F02 avec un ID ACORN, une date d'admission et une date d'enrôlement identiques.</t>
+          <t>Il y a des suivis à J28 effectués avant la date prévue à J28.</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
+          <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Il n'y a pas de cas atypique (un HCAI/CAI avec HAI précoce mais pas de chevauchement).</t>
+          <t>Il existe plusieurs F02 avec un ID ACORN, une date d'admission et une date d'enrôlement identiques.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>There are no D28 follow-up done before the expected D28 date.</t>
+          <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Il n'y a pas de suivi à J28 effectué avant la date prévue à J28.</t>
+          <t>Il n'y a pas de cas atypique (un HCAI/CAI avec HAI précoce mais pas de chevauchement).</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
+          <t>There are no D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Il n'y a pas d'isolat avec des résultats d'AST valides.</t>
+          <t>Il n'y a pas de suivi à J28 effectué avant la date prévue à J28.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
+          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Il n'existe pas de F02 avec un ID ACORN, une date d'admission et une date d'enrôlement identiques.</t>
+          <t>Il n'y a pas d'isolat avec des résultats d'AST valides.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>There are no problem case (overlapping specimen collection windows)</t>
+          <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Il n'y a pas de cas problématique (fenêtre de collection de spécimens qui se chevauchent)</t>
+          <t>Il n'existe pas de F02 avec un ID ACORN, une date d'admission et une date d'enrôlement identiques.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>There are rows for which 'specdate' are after today.</t>
+          <t>There are no problem case (overlapping specimen collection windows)</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Il se trouve des enregistrements avec des 'sepcdate' dans le futur.</t>
+          <t>Il n'y a pas de cas problématique (fenêtre de collection de spécimens qui se chevauchent)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>There are rows with missing 'orgname'.</t>
+          <t>There are rows for which 'specdate' are after today.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Il existe des enregistrements avec des 'orgname' manquant.</t>
+          <t>Il se trouve des enregistrements avec des 'sepcdate' dans le futur.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>There are rows with missing 'patid'.</t>
+          <t>There are rows with missing 'orgname'.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Il existe des enregistrements avec des 'patid' manquant.</t>
+          <t>Il existe des enregistrements avec des 'orgname' manquant.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specdate'.</t>
+          <t>There are rows with missing 'patid'.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Il existe des enregistrements avec des 'specdate' manquant.</t>
+          <t>Il existe des enregistrements avec des 'patid' manquant.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specgroup'.</t>
+          <t>There are rows with missing 'specdate'.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Il existe des enregistrements avec des 'specgroup' manquant.</t>
+          <t>Il existe des enregistrements avec des 'specdate' manquant.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specid'.</t>
+          <t>There are rows with missing 'specgroup'.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Il existe des enregistrements avec des 'specid' manquant.</t>
+          <t>Il existe des enregistrements avec des 'specgroup' manquant.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
+          <t>There are rows with missing 'specid'.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Il y a une erreur critiqe avec les données cliniques. Cette erreur doit être réparée dans REDCap.</t>
+          <t>Il existe des enregistrements avec des 'specid' manquant.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>There is no data to display for this organism.</t>
+          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Cette organisme n'a pas de données à visualiser</t>
+          <t>Il y a une erreur critiqe avec les données cliniques. Cette erreur doit être réparée dans REDCap.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>There is no HAI survey data</t>
+          <t>There is no data to display for this organism.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Il n'y a pas de données d'enquête HAI</t>
+          <t>Cette organisme n'a pas de données à visualiser</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Trying to save .acorn file on server.</t>
+          <t>There is no HAI survey data</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Tentative de sauvegarde du fichier .acorn sur serveur.</t>
+          <t>Il n'y a pas de données d'enquête HAI</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Updated Charlson Comorbidity Index (uCCI)</t>
+          <t>Trying to save .acorn file on server.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Updated Charlson Comorbidity Index (uCCI)</t>
+          <t>Tentative de sauvegarde du fichier .acorn sur serveur.</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>User</t>
+          <t>Updated Charlson Comorbidity Index (uCCI)</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Utilisateur</t>
+          <t>Updated Charlson Comorbidity Index (uCCI)</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Variables in Table:</t>
+          <t>User</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Variables dans la Table:</t>
+          <t>Utilisateur</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Ward Occupancy Rates</t>
+          <t>Variables in Table:</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Taux d'occupation des services</t>
+          <t>Variables dans la Table:</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
+          <t>Ward Occupancy Rates</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Le fichier des codes de lab ne peut pas être téléchargé. Merci de contacter l'équipe ACORN.</t>
+          <t>Taux d'occupation des services</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
+          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Le dictionnaire des données de lab ne peut pas être téléchargé. Merci de contacter l'équipe ACORN.</t>
+          <t>Le fichier des codes de lab ne peut pas être téléchargé. Merci de contacter l'équipe ACORN.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Welcome</t>
+          <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Bienvenue</t>
+          <t>Le dictionnaire des données de lab ne peut pas être téléchargé. Merci de contacter l'équipe ACORN.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>What do you want to do?</t>
+          <t>Welcome</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Comment voulez-vous procéder ?</t>
+          <t>Bienvenue</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>With Microbiology</t>
+          <t>What do you want to do?</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Avec Microbiologie</t>
+          <t>Comment voulez-vous procéder ?</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Wrong connection credentials.</t>
+          <t>With Microbiology</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Problème avec la connection internet.</t>
+          <t>Avec Microbiologie</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>You are running ACORN dashboard</t>
+          <t>Wrong connection credentials.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Vous utilisez le tableau de bord ACORN</t>
+          <t>Problème avec la connection internet.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>You can check here if it's the latest production release.</t>
+          <t>You are running ACORN dashboard</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Vous pouvez vérifier ici s'il s'agit de la dernière version de production.</t>
+          <t>Vous utilisez le tableau de bord ACORN</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Your ACORN dashboard is up to date</t>
+          <t>You can check here if it's the latest production release.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Votre tableau de bord ACORN est à jour</t>
+          <t>Vous pouvez vérifier ici s'il s'agit de la dernière version de production.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Follow us on Twitter</t>
+          <t>Your ACORN dashboard is up to date</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Suivez-nous sur Twitter</t>
+          <t>Votre tableau de bord ACORN est à jour</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Records in Lab data and BSI forms:</t>
+          <t>Follow us on Twitter</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Enregistrements dans les données de laboratoire et les formulaires BSI:</t>
+          <t>Suivez-nous sur Twitter</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ACORN data is not of the right format. Only data generated with v2.1 (or later versions) is compatible.</t>
+          <t>Records in Lab data and BSI forms:</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>deleted</t>
+          <t>Enregistrements dans les données de laboratoire et les formulaires BSI:</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ACORN data is not of the right format. Only data generated with v2.1 is compatible.</t>
+          <t>ACORN data is not of the right format. Only data generated with v2.1 (or later versions) is compatible.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2576,15 +2576,32 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
+          <t>ACORN data is not of the right format. Only data generated with v2.1 is compatible.</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
           <t>HAI point prevalence by</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>Point prévalence HAI par</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>deleted</t>
         </is>

--- a/misc/translations/en_fr_elements_to_update.xlsx
+++ b/misc/translations/en_fr_elements_to_update.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C185"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -749,1859 +749,1927 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Clinical Outcome</t>
+          <t>Clinical data not provided</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Résultat Clinique</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Clinical Outcome Status:</t>
+          <t>Clinical Outcome</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Statut des résultats cliniques:</t>
+          <t>Résultat Clinique</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Co-resistances</t>
+          <t>Clinical Outcome Status:</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Co-résistances</t>
+          <t>Statut des résultats cliniques:</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Combine Susceptible + Intermediate</t>
+          <t>Co-resistances</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Combiner Susceptible + Intermédiaire</t>
+          <t>Co-résistances</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Consider saving .acorn file on the cloud for additional security.</t>
+          <t>Combine Susceptible + Intermediate</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pour plus de sécurité, envisagez une sauvegarde des données sur un serveur.</t>
+          <t>Combiner Susceptible + Intermédiaire</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Contains names of organisms before and after mapping.</t>
+          <t>Consider saving .acorn file on the cloud for additional security.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Contient les noms des organismes avant et après cartorgraphie.</t>
+          <t>Pour plus de sécurité, envisagez une sauvegarde des données sur un serveur.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Couldn't connect to server. Please check internet access.</t>
+          <t>Contains names of organisms before and after mapping.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Il n'est pas possible de se connecter au server. Veuillez vérifier la connection à internet</t>
+          <t>Contient les noms des organismes avant et après cartorgraphie.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Critical errors with clinical data.</t>
+          <t>Couldn't connect to server. Please check internet access.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Erreurs critiques avec les données cliniques.</t>
+          <t>Il n'est pas possible de se connecter au server. Veuillez vérifier la connection à internet</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Culture results per specimen type</t>
+          <t>Critical errors with clinical data.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Résultats de culture par type de spécimen</t>
+          <t>Erreurs critiques avec les données cliniques.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Data Management</t>
+          <t>Culture results per specimen type</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Gestion des Données</t>
+          <t>Résultats de culture par type de spécimen</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Date of Enrolment</t>
+          <t>Data Management</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Date d'Enrôlement</t>
+          <t>Gestion des Données</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Day 28</t>
+          <t>Date of Enrolment</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Jour 28</t>
+          <t>Date d'Enrôlement</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Day 28 Status:</t>
+          <t>Day 28</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Statut au jour 28:</t>
+          <t>Jour 28</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Diagnosis at Enrolment</t>
+          <t>Day 28 Status:</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Diagnostics à l'Enrôlement</t>
+          <t>Statut au jour 28:</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Dismiss</t>
+          <t>Diagnosis at Enrolment</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Annuler</t>
+          <t>Diagnostics à l'Enrôlement</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Distribution of Enrolments</t>
+          <t>Dismiss</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Distribution des Enrôlements</t>
+          <t>Annuler</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Download Enrolment Log (.xlsx)</t>
+          <t>Distribution of Enrolments</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Télécharger un fichier de suivi des recrutements (.xlsx)</t>
+          <t>Distribution des Enrôlements</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Download Lab Log (.xlsx)</t>
+          <t>Download Enrolment Log (.xlsx)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Télécharger un log du traitement des donnés de lab (.xlsx)</t>
+          <t>Télécharger un fichier de suivi des recrutements (.xlsx)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Empiric Antibiotics Prescribed</t>
+          <t>Download Lab Log (.xlsx)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Antibiotiques Empiriques Prescris</t>
+          <t>Télécharger un log du traitement des donnés de lab (.xlsx)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Enrolments</t>
+          <t>Empiric Antibiotics Prescribed</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Enrôlements</t>
+          <t>Antibiotiques Empiriques Prescris</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Enrolments by (type of) Ward</t>
+          <t>Enrolments</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Enrôlements par (type de) service</t>
+          <t>Enrôlements</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Enrolments with Blood Culture</t>
+          <t>Enrolments by (type of) Ward</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Enrôlements avec hémoculture</t>
+          <t>Enrôlements par (type de) service</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Error in combining clinical and lab data.</t>
+          <t>Enrolments with Blood Culture</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Erreur produite en combinant les données clinique et de laboratoire.</t>
+          <t>Enrôlements avec hémoculture</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Every D28 record (F04) matches exactly one patient enrolment (F01).</t>
+          <t>Error in combining clinical and lab data.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Chaque enregistrement D28 (F04) correspond avec exactement un enrôlement de patient (F01).</t>
+          <t>Erreur produite en combinant les données clinique et de laboratoire.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Every hospital outcome record (F03) has a matching infection episode (F02).</t>
+          <t>Every D28 record (F04) matches exactly one patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>A tout enregistrement de résultats hospitaliers (F03) correspond un épisode infectieux (F02).</t>
+          <t>Chaque enregistrement D28 (F04) correspond avec exactement un enrôlement de patient (F01).</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Every hospital outcome record (F03) has a matching patient enrolment (F01).</t>
+          <t>Every hospital outcome record (F03) has a matching infection episode (F02).</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>A tout enregistrement de résultats hospitaliers (F03) correspond un enrôlement de patient (F01)</t>
+          <t>A tout enregistrement de résultats hospitaliers (F03) correspond un épisode infectieux (F02).</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Every infection episode record (F02) has a matching patient enrolment (F01).</t>
+          <t>Every hospital outcome record (F03) has a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>A tout enregistrement d'épisode infectieux (F02) correspond un enrôlement de patient (F01)</t>
+          <t>A tout enregistrement de résultats hospitaliers (F03) correspond un enrôlement de patient (F01)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>File name:</t>
+          <t>Every infection episode record (F02) has a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Nom de fichier:</t>
+          <t>A tout enregistrement d'épisode infectieux (F02) correspond un enrôlement de patient (F01)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>First sheet is the log of all enrolments retrived from REDCap (as per adjacent table). The second sheet is a listing of all flagged elements.</t>
+          <t>File name:</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Le premier onglet comprend tous les recrutements téléchargés depuis REDCap (voir table ci-contre). Le second onglet liste tous les éléments potentiellement à corriger.</t>
+          <t>Nom de fichier:</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Follow-up</t>
+          <t>First sheet is the log of all enrolments retrived from REDCap (as per adjacent table). The second sheet is a listing of all flagged elements.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Suivi</t>
+          <t>Le premier onglet comprend tous les recrutements téléchargés depuis REDCap (voir table ci-contre). Le second onglet liste tous les éléments potentiellement à corriger.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>from cultures that have growth</t>
+          <t>Follow-up</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>de cultures avec croissance</t>
+          <t>Suivi</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Generate .acorn file</t>
+          <t>from cultures that have growth</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Générer un fichier .acorn</t>
+          <t>de cultures avec croissance</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Generate and load .acorn from clinical and lab data</t>
+          <t>Generate .acorn file</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Générer un fichier .acorn depuis les données cliniques et de lab</t>
+          <t>Générer un fichier .acorn</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Generating .acorn</t>
+          <t>Generate and load .acorn from clinical and lab data</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Création du fichier .acorn</t>
+          <t>Générer un fichier .acorn depuis les données cliniques et de lab</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Get data from REDCap</t>
+          <t>Generating .acorn</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Obtenir des données depuis REDCap</t>
+          <t>Création du fichier .acorn</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Get the latest production release</t>
+          <t>Get data from REDCap</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Obtenir la dernière version stable</t>
+          <t>Obtenir des données depuis REDCap</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Growth / No Growth</t>
+          <t>Get the latest production release</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Croissance / Pas de croissance</t>
+          <t>Obtenir la dernière version stable</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">HAI point prevalence by </t>
+          <t>Growth / No Growth</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Croissance / Pas de croissance</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HAI Prevalence</t>
+          <t xml:space="preserve">HAI point prevalence by </t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Prévalence des HAI</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Horizontal bars show the size of a set of SR results while vertical bars show the number of resistant isolates for the corresponding antibiotic.</t>
+          <t>HAI Prevalence</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Les barres horizontales indiquent la taille d'un ensemble de résultats SR tandis que les barres verticales indiquent le nombre d'isolats résistants pour l'antibiotique correspondant.</t>
+          <t>Prévalence des HAI</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Info on loaded .acorn</t>
+          <t>Horizontal bars show the size of a set of SR results while vertical bars show the number of resistant isolates for the corresponding antibiotic.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Information sur le fichier .acorn chargé.</t>
+          <t>Les barres horizontales indiquent la taille d'un ensemble de résultats SR tandis que les barres verticales indiquent le nombre d'isolats résistants pour l'antibiotique correspondant.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Initial &amp; Final Surveillance Diagnosis</t>
+          <t>Info on loaded .acorn</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Information sur le fichier .acorn chargé.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Initial and Final Surveillance Diagnosis</t>
+          <t>Initial &amp; Final Surveillance Diagnosis</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Diagnostic de surveillance initial et final</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Isolates</t>
+          <t>Initial and Final Surveillance Diagnosis</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Isolats</t>
+          <t>Diagnostic de surveillance initial et final</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
+          <t>Isolates</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Problème détecté avec les données REDCap. Merci de contacter l'équipe ACORN. Jusqu'à résolution, seuls les fichiers .acorn existants peuvent être utilisés.</t>
+          <t>Isolats</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>It might take a couple of minutes. This window will close on completion.</t>
+          <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Cela peut prendre plusieurs minutes. Cette fenêtre se fermera automatiquement.</t>
+          <t>Problème détecté avec les données REDCap. Merci de contacter l'équipe ACORN. Jusqu'à résolution, seuls les fichiers .acorn existants peuvent être utilisés.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Lab data successfully processed!</t>
+          <t>It might take a couple of minutes. This window will close on completion.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Traitement des données de lab achevé avec succès !</t>
+          <t>Cela peut prendre plusieurs minutes. Cette fenêtre se fermera automatiquement.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Lab data successfully provided.</t>
+          <t>Lab data not provided</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Les données de laboratoire ont été fournies avec succès.</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Lab dataset contains the minimal columns.</t>
+          <t>Lab data successfully processed!</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Le jeu de données de lab contient les colonnes minimales requises.</t>
+          <t>Traitement des données de lab achevé avec succès !</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Lab dataset does not contains the minimal columns.</t>
+          <t>Lab data successfully provided.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Le jeu de données de lab ne contient pas les colonnes minimales requises.</t>
+          <t>Les données de laboratoire ont été fournies avec succès.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Language</t>
+          <t>Lab dataset contains the minimal columns.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Langue</t>
+          <t>Le jeu de données de lab contient les colonnes minimales requises.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Load .acorn</t>
+          <t>Lab dataset does not contains the minimal columns.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Charger le fichier .acorn</t>
+          <t>Le jeu de données de lab ne contient pas les colonnes minimales requises.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Load .acorn from cloud</t>
+          <t>Language</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Charger le fichier .acorn depuis le nuage</t>
+          <t>Langue</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Load .acorn from local file</t>
+          <t>Load .acorn</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Charger le fichier .acorn localement</t>
+          <t>Charger le fichier .acorn</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Load selected .acorn</t>
+          <t>Load .acorn from cloud</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Charger le fichier .acorn sélectionné</t>
+          <t>Charger le fichier .acorn depuis le nuage</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Loading data.</t>
+          <t>Load .acorn from local file</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Chargement des données.</t>
+          <t>Charger le fichier .acorn localement</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Log in</t>
+          <t>Load selected .acorn</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Se connecter</t>
+          <t>Charger le fichier .acorn sélectionné</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Microbiology</t>
+          <t>Loading data.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Microbiologie</t>
+          <t>Chargement des données.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
+          <t>Log in</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Les 10 organismes les plus nombreux sont dans le graphique et la liste complète dans la tables. Les contaminants sont en rouge.</t>
+          <t>Se connecter</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>No .acorn data loaded.</t>
+          <t>Microbiology</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Aucun fichier .acorn n'a été chargé.</t>
+          <t>Microbiologie</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>No Blood Culture</t>
+          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Pas d'Hématoculture</t>
+          <t>Les 10 organismes les plus nombreux sont dans le graphique et la liste complète dans la tables. Les contaminants sont en rouge.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Not connected to internet.</t>
+          <t>No .acorn data loaded.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Pas de connection à internet détecté.</t>
+          <t>Aucun fichier .acorn n'a été chargé.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Number of specimens per specimen type</t>
+          <t>No .acorn has been generated</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Nombre de specimens par type de specimen</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Occupancy rate per type of ward per month</t>
+          <t>No .acorn has been saved</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Taux d'occupation par type de service et par mois</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>of blood cultures grew a potential contaminant.</t>
+          <t>No Blood Culture</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>des hémocultures ont générées un contaminant potentiel.</t>
+          <t>Pas d'Hématoculture</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>of cultures have growth.</t>
+          <t>Not connected to internet.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>des cultures avec croissance.</t>
+          <t>Pas de connection à internet détecté.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>of enrolments with blood culture.</t>
+          <t>Number of specimens per specimen type</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>des enrôlements avec hémoculture.</t>
+          <t>Nombre de specimens par type de specimen</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>of Target Pathogens</t>
+          <t>Occupancy rate per type of ward per month</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>des Pathogènes Cibles</t>
+          <t>Taux d'occupation par type de service et par mois</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
+          <t>of blood cultures grew a potential contaminant.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Seuls les isolats qui ont été testés contre tous les médicaments sont inclus dans le graphique.</t>
+          <t>des hémocultures ont générées un contaminant potentiel.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>of cultures have growth.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Aperçu</t>
+          <t>des cultures avec croissance.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Password</t>
+          <t>of enrolments with blood culture.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Mot de passe</t>
+          <t>des enrôlements avec hémoculture.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Patient Age Distribution</t>
+          <t>of Target Pathogens</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Distribution des ages des patients</t>
+          <t>des Pathogènes Cibles</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Patient Comorbidities</t>
+          <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Comorbiditées</t>
+          <t>Seuls les isolats qui ont été testés contre tous les médicaments sont inclus dans le graphique.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Patient enrolments</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Enrôlements</t>
+          <t>Aperçu</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Patients Transferred</t>
+          <t>Password</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Patients Transferrés</t>
+          <t>Mot de passe</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Please log in</t>
+          <t>Patient Age Distribution</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Connection</t>
+          <t>Distribution des ages des patients</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Processing lab data.</t>
+          <t>Patient Comorbidities</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Traitement des données de lab.</t>
+          <t>Comorbiditées</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Reading lab data.</t>
+          <t>Patient enrolments</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Lecture des données de lab.</t>
+          <t>Enrôlements</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Remove 'Not Cultured' specimens</t>
+          <t>Patients Transferred</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Supprimer les spécimens 'Not Cultured'</t>
+          <t>Patients Transferrés</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Remove blood culture contaminants from the following visualizations</t>
+          <t>Please log in</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Élimine les contaminants d'hémoculture des visualisations ci-dessous</t>
+          <t>Connection</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Reset Enrolments Filters</t>
+          <t>Processing lab data.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Réinitialiser les Filtres sur les Enrôlements</t>
+          <t>Traitement des données de lab.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
+          <t>Reading lab data.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux 3rd gen. Cephalosporins</t>
+          <t>Lecture des données de lab.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Resistance to Carbapenems Over Time</t>
+          <t>Remove 'Not Cultured' specimens</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux Carbapenems</t>
+          <t>Supprimer les spécimens 'Not Cultured'</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Resistance to Fluoroquinolones Over Time</t>
+          <t>Remove blood culture contaminants from the following visualizations</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux Fluoroquinolones</t>
+          <t>Élimine les contaminants d'hémoculture des visualisations ci-dessous</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Resistance to Oxacillin Over Time</t>
+          <t>Reset Enrolments Filters</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux Oxacillin</t>
+          <t>Réinitialiser les Filtres sur les Enrôlements</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G - meningitis Over Time</t>
+          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux Penicillin G - meningitis</t>
+          <t>Evolution de la Résistance aux 3rd gen. Cephalosporins</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G Over Time</t>
+          <t>Resistance to Carbapenems Over Time</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux Penicillin G</t>
+          <t>Evolution de la Résistance aux Carbapenems</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Retriving data from REDCap server.</t>
+          <t>Resistance to Fluoroquinolones Over Time</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Récupération des données depuis le serveur REDcap.</t>
+          <t>Evolution de la Résistance aux Fluoroquinolones</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Save .acorn file</t>
+          <t>Resistance to Oxacillin Over Time</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Sauvegarder un ficher .acorn</t>
+          <t>Evolution de la Résistance aux Oxacillin</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Save acorn data</t>
+          <t>Resistance to Penicillin G - meningitis Over Time</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Sauvegarder des données acorn</t>
+          <t>Evolution de la Résistance aux Penicillin G - meningitis</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Save on Server</t>
+          <t>Resistance to Penicillin G Over Time</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Sauvegarder sur serveur</t>
+          <t>Evolution de la Résistance aux Penicillin G</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>See Breakdown by Ward</t>
+          <t>Retriving data from REDCap server.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Montrer la Répartition par Service</t>
+          <t>Récupération des données depuis le serveur REDcap.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>See by Week</t>
+          <t>Save .acorn file</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Montrer par Semaine</t>
+          <t>Sauvegarder un ficher .acorn</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Show antibiotics combinations</t>
+          <t>Save acorn data</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Montrer les combinaisons d'antibiotiques.</t>
+          <t>Sauvegarder des données acorn</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Show comorbidities combinations</t>
+          <t>Save on Server</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Montrer les combinaisons de comorbiditées</t>
+          <t>Sauvegarder sur serveur</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SIR Evaluation</t>
+          <t>See Breakdown by Ward</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Evaluation SIR</t>
+          <t>Montrer la Répartition par Service</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
+          <t>See by Week</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Certains enregistrements D28 (F04) n'ont pas un enrôlement de patient (F01) correspondant.</t>
+          <t>Montrer par Semaine</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
+          <t>Show antibiotics combinations</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Certaines dates d'enrôlements de patients avec une HAI ne se trouvent pas dans le jeu de données d'études de HAI.</t>
+          <t>Montrer les combinaisons d'antibiotiques.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
+          <t>Show comorbidities combinations</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Certains enregistrements de résultats hospitaliers (F03) ne correspondent à aucun un épisode infectieux (F02).</t>
+          <t>Montrer les combinaisons de comorbiditées</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
+          <t>SIR Evaluation</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Certains enregistrements de résultats hospitaliers (F03) ne correspondent à aucun enrôlement de patient (F01)</t>
+          <t>Evaluation SIR</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
+          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Certains enregistrements d'épisode infectieux (F02) ne correspondent à aucun enrôlement de patient (F01). Ces enregistrements ont été supprimés.</t>
+          <t>Certains enregistrements D28 (F04) n'ont pas un enrôlement de patient (F01) correspondant.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Some records with a missing ACORN ID. These records have been removed.</t>
+          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Certains enregistrements ont un identifiant ACORN manquant. Ces enregistrements ont été supprimés.</t>
+          <t>Certaines dates d'enrôlements de patients avec une HAI ne se trouvent pas dans le jeu de données d'études de HAI.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Specimen Types</t>
+          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Types de Specimen</t>
+          <t>Certains enregistrements de résultats hospitaliers (F03) ne correspondent à aucun un épisode infectieux (F02).</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Specimens</t>
+          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Spécimens</t>
+          <t>Certains enregistrements de résultats hospitaliers (F03) ne correspondent à aucun enrôlement de patient (F01)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Specimens Collected</t>
+          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Spécimens Recueillis</t>
+          <t>Certains enregistrements d'épisode infectieux (F02) ne correspondent à aucun enrôlement de patient (F01). Ces enregistrements ont été supprimés.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>specimens per enrolment</t>
+          <t>Some records with a missing ACORN ID. These records have been removed.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>spécimens par enrôlement</t>
+          <t>Certains enregistrements ont un identifiant ACORN manquant. Ces enregistrements ont été supprimés.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Successfully combined clinical and lab data into .acorn file</t>
+          <t>Specimen Types</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Les données cliniques et de laboratoire ont bien été combinées dans un fichier .acorn</t>
+          <t>Types de Specimen</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Successfully loaded data.</t>
+          <t>Specimens</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Chargement des données réalisé avec succès.</t>
+          <t>Spécimens</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Successfully logged in.</t>
+          <t>Specimens Collected</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Connection réussie.</t>
+          <t>Spécimens Recueillis</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
+          <t>specimens per enrolment</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Fichier .acorn sauvegardé sur le serveur. Vous pouvez maintenant explorer les données acorn.</t>
+          <t>spécimens par enrôlement</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file locally.</t>
+          <t>Successfully combined clinical and lab data into .acorn file</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Fichier .acorn sauvegardé locallement.</t>
+          <t>Les données cliniques et de laboratoire ont bien été combinées dans un fichier .acorn</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Supply first valid clinical and lab data.</t>
+          <t>Successfully loaded data.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Fournir en premier lieu des données clinique et de lab valides.</t>
+          <t>Chargement des données réalisé avec succès.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Susceptible and Intermediate are always combined in this visualisation of co-resistances.</t>
+          <t>Successfully logged in.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Susceptible et Intermédiaire sont toujours combinés dans cette visualisation des co-résistances.</t>
+          <t>Connection réussie.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>The 10 most common initial-final diagnosis combinations:</t>
+          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Les 10 combinaisons de diagnostic initial-final les plus courantes :</t>
+          <t>Fichier .acorn sauvegardé sur le serveur. Vous pouvez maintenant explorer les données acorn.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
+          <t>Successfully saved .acorn file locally.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Les « identifiants de patient » suivants sont des cas atypiques (un HCAI/CAI avec HAI précoce mais sans chevauchement) :</t>
+          <t>Fichier .acorn sauvegardé locallement.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
+          <t>Supply first valid clinical and lab data.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Les 'patient id' suivant sont des cas problématiques (fenêtre de collection de spécimens qui se chevauchent)</t>
+          <t>Fournir en premier lieu des données clinique et de lab valides.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
+          <t>Susceptible and Intermediate are always combined in this visualisation of co-resistances.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Le jeu de données REDCap est vide/au mauvais format. Veuillez contacter l'assistance ACORN.</t>
+          <t>Susceptible et Intermédiaire sont toujours combinés dans cette visualisation des co-résistances.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>The REDCap dataset is in the right format.</t>
+          <t>The 10 most common initial-final diagnosis combinations:</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Le jeu de données REDCap est au bon format.</t>
+          <t>Les 10 combinaisons de diagnostic initial-final les plus courantes :</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>There are D28 follow-up done before the expected D28 date.</t>
+          <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Il y a des suivis à J28 effectués avant la date prévue à J28.</t>
+          <t>Les « identifiants de patient » suivants sont des cas atypiques (un HCAI/CAI avec HAI précoce mais sans chevauchement) :</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
+          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Il existe plusieurs F02 avec un ID ACORN, une date d'admission et une date d'enrôlement identiques.</t>
+          <t>Les 'patient id' suivant sont des cas problématiques (fenêtre de collection de spécimens qui se chevauchent)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
+          <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Il n'y a pas de cas atypique (un HCAI/CAI avec HAI précoce mais pas de chevauchement).</t>
+          <t>Le jeu de données REDCap est vide/au mauvais format. Veuillez contacter l'assistance ACORN.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>There are no D28 follow-up done before the expected D28 date.</t>
+          <t>The REDCap dataset is in the right format.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Il n'y a pas de suivi à J28 effectué avant la date prévue à J28.</t>
+          <t>Le jeu de données REDCap est au bon format.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
+          <t>There are D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Il n'y a pas d'isolat avec des résultats d'AST valides.</t>
+          <t>Il y a des suivis à J28 effectués avant la date prévue à J28.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
+          <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Il n'existe pas de F02 avec un ID ACORN, une date d'admission et une date d'enrôlement identiques.</t>
+          <t>Il existe plusieurs F02 avec un ID ACORN, une date d'admission et une date d'enrôlement identiques.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>There are no problem case (overlapping specimen collection windows)</t>
+          <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Il n'y a pas de cas problématique (fenêtre de collection de spécimens qui se chevauchent)</t>
+          <t>Il n'y a pas de cas atypique (un HCAI/CAI avec HAI précoce mais pas de chevauchement).</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>There are rows for which 'specdate' are after today.</t>
+          <t>There are no D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Il se trouve des enregistrements avec des 'sepcdate' dans le futur.</t>
+          <t>Il n'y a pas de suivi à J28 effectué avant la date prévue à J28.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>There are rows with missing 'orgname'.</t>
+          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Il existe des enregistrements avec des 'orgname' manquant.</t>
+          <t>Il n'y a pas d'isolat avec des résultats d'AST valides.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>There are rows with missing 'patid'.</t>
+          <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Il existe des enregistrements avec des 'patid' manquant.</t>
+          <t>Il n'existe pas de F02 avec un ID ACORN, une date d'admission et une date d'enrôlement identiques.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specdate'.</t>
+          <t>There are no problem case (overlapping specimen collection windows)</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Il existe des enregistrements avec des 'specdate' manquant.</t>
+          <t>Il n'y a pas de cas problématique (fenêtre de collection de spécimens qui se chevauchent)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specgroup'.</t>
+          <t>There are rows for which 'specdate' are after today.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Il existe des enregistrements avec des 'specgroup' manquant.</t>
+          <t>Il se trouve des enregistrements avec des 'sepcdate' dans le futur.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specid'.</t>
+          <t>There are rows with missing 'orgname'.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Il existe des enregistrements avec des 'specid' manquant.</t>
+          <t>Il existe des enregistrements avec des 'orgname' manquant.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
+          <t>There are rows with missing 'patid'.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Il y a une erreur critiqe avec les données cliniques. Cette erreur doit être réparée dans REDCap.</t>
+          <t>Il existe des enregistrements avec des 'patid' manquant.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>There is no data to display for this organism.</t>
+          <t>There are rows with missing 'specdate'.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Cette organisme n'a pas de données à visualiser</t>
+          <t>Il existe des enregistrements avec des 'specdate' manquant.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>There is no HAI survey data</t>
+          <t>There are rows with missing 'specgroup'.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Il n'y a pas de données d'enquête HAI</t>
+          <t>Il existe des enregistrements avec des 'specgroup' manquant.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Trying to save .acorn file on server.</t>
+          <t>There are rows with missing 'specid'.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Tentative de sauvegarde du fichier .acorn sur serveur.</t>
+          <t>Il existe des enregistrements avec des 'specid' manquant.</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Updated Charlson Comorbidity Index (uCCI)</t>
+          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Updated Charlson Comorbidity Index (uCCI)</t>
+          <t>Il y a une erreur critiqe avec les données cliniques. Cette erreur doit être réparée dans REDCap.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>User</t>
+          <t>There is no data to display for this organism.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Utilisateur</t>
+          <t>Cette organisme n'a pas de données à visualiser</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Variables in Table:</t>
+          <t>There is no HAI survey data</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Variables dans la Table:</t>
+          <t>Il n'y a pas de données d'enquête HAI</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Ward Occupancy Rates</t>
+          <t>Trying to save .acorn file on server.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Taux d'occupation des services</t>
+          <t>Tentative de sauvegarde du fichier .acorn sur serveur.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
+          <t>Updated Charlson Comorbidity Index (uCCI)</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Le fichier des codes de lab ne peut pas être téléchargé. Merci de contacter l'équipe ACORN.</t>
+          <t>Updated Charlson Comorbidity Index (uCCI)</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
+          <t>User</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Le dictionnaire des données de lab ne peut pas être téléchargé. Merci de contacter l'équipe ACORN.</t>
+          <t>Utilisateur</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Welcome</t>
+          <t>Variables in Table:</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Bienvenue</t>
+          <t>Variables dans la Table:</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>What do you want to do?</t>
+          <t>Ward Occupancy Rates</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Comment voulez-vous procéder ?</t>
+          <t>Taux d'occupation des services</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>With Microbiology</t>
+          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Avec Microbiologie</t>
+          <t>Le fichier des codes de lab ne peut pas être téléchargé. Merci de contacter l'équipe ACORN.</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Wrong connection credentials.</t>
+          <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Problème avec la connection internet.</t>
+          <t>Le dictionnaire des données de lab ne peut pas être téléchargé. Merci de contacter l'équipe ACORN.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>You are running ACORN dashboard</t>
+          <t>Welcome</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Vous utilisez le tableau de bord ACORN</t>
+          <t>Bienvenue</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>You can check here if it's the latest production release.</t>
+          <t>What do you want to do?</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Vous pouvez vérifier ici s'il s'agit de la dernière version de production.</t>
+          <t>Comment voulez-vous procéder ?</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Your ACORN dashboard is up to date</t>
+          <t>With Microbiology</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Votre tableau de bord ACORN est à jour</t>
+          <t>Avec Microbiologie</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Follow us on Twitter</t>
+          <t>Wrong connection credentials.</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Suivez-nous sur Twitter</t>
+          <t>Problème avec la connection internet.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Records in Lab data and BSI forms:</t>
+          <t>You are running ACORN dashboard</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Enregistrements dans les données de laboratoire et les formulaires BSI:</t>
+          <t>Vous utilisez le tableau de bord ACORN</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ACORN data is not of the right format. Only data generated with v2.1 (or later versions) is compatible.</t>
+          <t>You can check here if it's the latest production release.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>deleted</t>
+          <t>Vous pouvez vérifier ici s'il s'agit de la dernière version de production.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ACORN data is not of the right format. Only data generated with v2.1 is compatible.</t>
+          <t>Your ACORN dashboard is up to date</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>deleted</t>
+          <t>Votre tableau de bord ACORN est à jour</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
+          <t>Follow us on Twitter</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Suivez-nous sur Twitter</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Records in Lab data and BSI forms:</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Enregistrements dans les données de laboratoire et les formulaires BSI:</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>ACORN data is not of the right format. Only data generated with v2.1 (or later versions) is compatible.</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ACORN data is not of the right format. Only data generated with v2.1 is compatible.</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
           <t>HAI point prevalence by</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>Point prévalence HAI par</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>deleted</t>
         </is>

--- a/misc/translations/en_fr_elements_to_update.xlsx
+++ b/misc/translations/en_fr_elements_to_update.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C189"/>
+  <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1174,1502 +1174,1570 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Get data from REDCap</t>
+          <t>Generating lab file overview.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Obtenir des données depuis REDCap</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Get the latest production release</t>
+          <t>Get data from REDCap</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Obtenir la dernière version stable</t>
+          <t>Obtenir des données depuis REDCap</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Growth / No Growth</t>
+          <t>Get the latest production release</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Croissance / Pas de croissance</t>
+          <t>Obtenir la dernière version stable</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">HAI point prevalence by </t>
+          <t>Growth / No Growth</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Croissance / Pas de croissance</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HAI Prevalence</t>
+          <t xml:space="preserve">HAI point prevalence by </t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Prévalence des HAI</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Horizontal bars show the size of a set of SR results while vertical bars show the number of resistant isolates for the corresponding antibiotic.</t>
+          <t>HAI Prevalence</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Les barres horizontales indiquent la taille d'un ensemble de résultats SR tandis que les barres verticales indiquent le nombre d'isolats résistants pour l'antibiotique correspondant.</t>
+          <t>Prévalence des HAI</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Info on loaded .acorn</t>
+          <t>Horizontal bars show the size of a set of SR results while vertical bars show the number of resistant isolates for the corresponding antibiotic.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Information sur le fichier .acorn chargé.</t>
+          <t>Les barres horizontales indiquent la taille d'un ensemble de résultats SR tandis que les barres verticales indiquent le nombre d'isolats résistants pour l'antibiotique correspondant.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Initial &amp; Final Surveillance Diagnosis</t>
+          <t>Info on loaded .acorn</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Information sur le fichier .acorn chargé.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Initial and Final Surveillance Diagnosis</t>
+          <t>Initial &amp; Final Surveillance Diagnosis</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Diagnostic de surveillance initial et final</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Isolates</t>
+          <t>Initial and Final Surveillance Diagnosis</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Isolats</t>
+          <t>Diagnostic de surveillance initial et final</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
+          <t>Isolates</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Problème détecté avec les données REDCap. Merci de contacter l'équipe ACORN. Jusqu'à résolution, seuls les fichiers .acorn existants peuvent être utilisés.</t>
+          <t>Isolats</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>It might take a couple of minutes. This window will close on completion.</t>
+          <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Cela peut prendre plusieurs minutes. Cette fenêtre se fermera automatiquement.</t>
+          <t>Problème détecté avec les données REDCap. Merci de contacter l'équipe ACORN. Jusqu'à résolution, seuls les fichiers .acorn existants peuvent être utilisés.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Lab data not provided</t>
+          <t>It might take a couple of minutes. This window will close on completion.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Cela peut prendre plusieurs minutes. Cette fenêtre se fermera automatiquement.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Lab data successfully processed!</t>
+          <t>Lab data not provided</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Traitement des données de lab achevé avec succès !</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Lab data successfully provided.</t>
+          <t>Lab data successfully processed!</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Les données de laboratoire ont été fournies avec succès.</t>
+          <t>Traitement des données de lab achevé avec succès !</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Lab dataset contains the minimal columns.</t>
+          <t>Lab data successfully provided.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Le jeu de données de lab contient les colonnes minimales requises.</t>
+          <t>Les données de laboratoire ont été fournies avec succès.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Lab dataset does not contains the minimal columns.</t>
+          <t>Lab dataset contains the minimal columns.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Le jeu de données de lab ne contient pas les colonnes minimales requises.</t>
+          <t>Le jeu de données de lab contient les colonnes minimales requises.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Language</t>
+          <t>Lab dataset does not contains the minimal columns.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Langue</t>
+          <t>Le jeu de données de lab ne contient pas les colonnes minimales requises.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Load .acorn</t>
+          <t>Lab file overview (optional)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Charger le fichier .acorn</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Load .acorn from cloud</t>
+          <t>Language</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Charger le fichier .acorn depuis le nuage</t>
+          <t>Langue</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Load .acorn from local file</t>
+          <t>Load .acorn</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Charger le fichier .acorn localement</t>
+          <t>Charger le fichier .acorn</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Load selected .acorn</t>
+          <t>Load .acorn from cloud</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Charger le fichier .acorn sélectionné</t>
+          <t>Charger le fichier .acorn depuis le nuage</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Loading data.</t>
+          <t>Load .acorn from local file</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Chargement des données.</t>
+          <t>Charger le fichier .acorn localement</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Log in</t>
+          <t>Load selected .acorn</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Se connecter</t>
+          <t>Charger le fichier .acorn sélectionné</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Microbiology</t>
+          <t>Loading data.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Microbiologie</t>
+          <t>Chargement des données.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
+          <t>Log in</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Les 10 organismes les plus nombreux sont dans le graphique et la liste complète dans la tables. Les contaminants sont en rouge.</t>
+          <t>Se connecter</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>No .acorn data loaded.</t>
+          <t>Microbiology</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Aucun fichier .acorn n'a été chargé.</t>
+          <t>Microbiologie</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>No .acorn has been generated</t>
+          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Les 10 organismes les plus nombreux sont dans le graphique et la liste complète dans la tables. Les contaminants sont en rouge.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>No .acorn has been saved</t>
+          <t>No .acorn data loaded.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Aucun fichier .acorn n'a été chargé.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>No Blood Culture</t>
+          <t>No .acorn has been generated</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Pas d'Hématoculture</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Not connected to internet.</t>
+          <t>No .acorn has been saved</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Pas de connection à internet détecté.</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Number of specimens per specimen type</t>
+          <t>No Blood Culture</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Nombre de specimens par type de specimen</t>
+          <t>Pas d'Hématoculture</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Occupancy rate per type of ward per month</t>
+          <t>Not connected to internet.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Taux d'occupation par type de service et par mois</t>
+          <t>Pas de connection à internet détecté.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>of blood cultures grew a potential contaminant.</t>
+          <t>Number of specimens per specimen type</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>des hémocultures ont générées un contaminant potentiel.</t>
+          <t>Nombre de specimens par type de specimen</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>of cultures have growth.</t>
+          <t>Occupancy rate per type of ward per month</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>des cultures avec croissance.</t>
+          <t>Taux d'occupation par type de service et par mois</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>of enrolments with blood culture.</t>
+          <t>of blood cultures grew a potential contaminant.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>des enrôlements avec hémoculture.</t>
+          <t>des hémocultures ont générées un contaminant potentiel.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>of Target Pathogens</t>
+          <t>of cultures have growth.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>des Pathogènes Cibles</t>
+          <t>des cultures avec croissance.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
+          <t>of enrolments with blood culture.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Seuls les isolats qui ont été testés contre tous les médicaments sont inclus dans le graphique.</t>
+          <t>des enrôlements avec hémoculture.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>of Target Pathogens</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Aperçu</t>
+          <t>des Pathogènes Cibles</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Password</t>
+          <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Mot de passe</t>
+          <t>Seuls les isolats qui ont été testés contre tous les médicaments sont inclus dans le graphique.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Patient Age Distribution</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Distribution des ages des patients</t>
+          <t>Aperçu</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Patient Comorbidities</t>
+          <t>Overview of lab file successfully generated!</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Comorbiditées</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Patient enrolments</t>
+          <t>Password</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Enrôlements</t>
+          <t>Mot de passe</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Patients Transferred</t>
+          <t>Patient Age Distribution</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Patients Transferrés</t>
+          <t>Distribution des ages des patients</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Please log in</t>
+          <t>Patient Comorbidities</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Connection</t>
+          <t>Comorbiditées</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Processing lab data.</t>
+          <t>Patient enrolments</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Traitement des données de lab.</t>
+          <t>Enrôlements</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Reading lab data.</t>
+          <t>Patients Transferred</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Lecture des données de lab.</t>
+          <t>Patients Transferrés</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Remove 'Not Cultured' specimens</t>
+          <t>Please log in</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Supprimer les spécimens 'Not Cultured'</t>
+          <t>Connection</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Remove blood culture contaminants from the following visualizations</t>
+          <t>Process Lab File</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Élimine les contaminants d'hémoculture des visualisations ci-dessous</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Reset Enrolments Filters</t>
+          <t>Processing lab data.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Réinitialiser les Filtres sur les Enrôlements</t>
+          <t>Traitement des données de lab.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
+          <t>Reading lab data.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux 3rd gen. Cephalosporins</t>
+          <t>Lecture des données de lab.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Resistance to Carbapenems Over Time</t>
+          <t>Remove 'Not Cultured' specimens</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux Carbapenems</t>
+          <t>Supprimer les spécimens 'Not Cultured'</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Resistance to Fluoroquinolones Over Time</t>
+          <t>Remove blood culture contaminants from the following visualizations</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux Fluoroquinolones</t>
+          <t>Élimine les contaminants d'hémoculture des visualisations ci-dessous</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Resistance to Oxacillin Over Time</t>
+          <t>Reset Enrolments Filters</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux Oxacillin</t>
+          <t>Réinitialiser les Filtres sur les Enrôlements</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G - meningitis Over Time</t>
+          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux Penicillin G - meningitis</t>
+          <t>Evolution de la Résistance aux 3rd gen. Cephalosporins</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G Over Time</t>
+          <t>Resistance to Carbapenems Over Time</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux Penicillin G</t>
+          <t>Evolution de la Résistance aux Carbapenems</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Retriving data from REDCap server.</t>
+          <t>Resistance to Fluoroquinolones Over Time</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Récupération des données depuis le serveur REDcap.</t>
+          <t>Evolution de la Résistance aux Fluoroquinolones</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Save .acorn file</t>
+          <t>Resistance to Oxacillin Over Time</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Sauvegarder un ficher .acorn</t>
+          <t>Evolution de la Résistance aux Oxacillin</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Save acorn data</t>
+          <t>Resistance to Penicillin G - meningitis Over Time</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Sauvegarder des données acorn</t>
+          <t>Evolution de la Résistance aux Penicillin G - meningitis</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Save on Server</t>
+          <t>Resistance to Penicillin G Over Time</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Sauvegarder sur serveur</t>
+          <t>Evolution de la Résistance aux Penicillin G</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>See Breakdown by Ward</t>
+          <t>Retriving data from REDCap server.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Montrer la Répartition par Service</t>
+          <t>Récupération des données depuis le serveur REDcap.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>See by Week</t>
+          <t>Save .acorn file</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Montrer par Semaine</t>
+          <t>Sauvegarder un ficher .acorn</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Show antibiotics combinations</t>
+          <t>Save acorn data</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Montrer les combinaisons d'antibiotiques.</t>
+          <t>Sauvegarder des données acorn</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Show comorbidities combinations</t>
+          <t>Save on Server</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Montrer les combinaisons de comorbiditées</t>
+          <t>Sauvegarder sur serveur</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SIR Evaluation</t>
+          <t>See Breakdown by Ward</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Evaluation SIR</t>
+          <t>Montrer la Répartition par Service</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
+          <t>See by Week</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Certains enregistrements D28 (F04) n'ont pas un enrôlement de patient (F01) correspondant.</t>
+          <t>Montrer par Semaine</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
+          <t>Show antibiotics combinations</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Certaines dates d'enrôlements de patients avec une HAI ne se trouvent pas dans le jeu de données d'études de HAI.</t>
+          <t>Montrer les combinaisons d'antibiotiques.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
+          <t>Show comorbidities combinations</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Certains enregistrements de résultats hospitaliers (F03) ne correspondent à aucun un épisode infectieux (F02).</t>
+          <t>Montrer les combinaisons de comorbiditées</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
+          <t>SIR Evaluation</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Certains enregistrements de résultats hospitaliers (F03) ne correspondent à aucun enrôlement de patient (F01)</t>
+          <t>Evaluation SIR</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
+          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Certains enregistrements d'épisode infectieux (F02) ne correspondent à aucun enrôlement de patient (F01). Ces enregistrements ont été supprimés.</t>
+          <t>Certains enregistrements D28 (F04) n'ont pas un enrôlement de patient (F01) correspondant.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Some records with a missing ACORN ID. These records have been removed.</t>
+          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Certains enregistrements ont un identifiant ACORN manquant. Ces enregistrements ont été supprimés.</t>
+          <t>Certaines dates d'enrôlements de patients avec une HAI ne se trouvent pas dans le jeu de données d'études de HAI.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Specimen Types</t>
+          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Types de Specimen</t>
+          <t>Certains enregistrements de résultats hospitaliers (F03) ne correspondent à aucun un épisode infectieux (F02).</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Specimens</t>
+          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Spécimens</t>
+          <t>Certains enregistrements de résultats hospitaliers (F03) ne correspondent à aucun enrôlement de patient (F01)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Specimens Collected</t>
+          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Spécimens Recueillis</t>
+          <t>Certains enregistrements d'épisode infectieux (F02) ne correspondent à aucun enrôlement de patient (F01). Ces enregistrements ont été supprimés.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>specimens per enrolment</t>
+          <t>Some records with a missing ACORN ID. These records have been removed.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>spécimens par enrôlement</t>
+          <t>Certains enregistrements ont un identifiant ACORN manquant. Ces enregistrements ont été supprimés.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Successfully combined clinical and lab data into .acorn file</t>
+          <t>Specimen Types</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Les données cliniques et de laboratoire ont bien été combinées dans un fichier .acorn</t>
+          <t>Types de Specimen</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Successfully loaded data.</t>
+          <t>Specimens</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Chargement des données réalisé avec succès.</t>
+          <t>Spécimens</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Successfully logged in.</t>
+          <t>Specimens Collected</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Connection réussie.</t>
+          <t>Spécimens Recueillis</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
+          <t>specimens per enrolment</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Fichier .acorn sauvegardé sur le serveur. Vous pouvez maintenant explorer les données acorn.</t>
+          <t>spécimens par enrôlement</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file locally.</t>
+          <t>Successfully combined clinical and lab data into .acorn file</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Fichier .acorn sauvegardé locallement.</t>
+          <t>Les données cliniques et de laboratoire ont bien été combinées dans un fichier .acorn</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Supply first valid clinical and lab data.</t>
+          <t>Successfully loaded data.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Fournir en premier lieu des données clinique et de lab valides.</t>
+          <t>Chargement des données réalisé avec succès.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Susceptible and Intermediate are always combined in this visualisation of co-resistances.</t>
+          <t>Successfully logged in.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Susceptible et Intermédiaire sont toujours combinés dans cette visualisation des co-résistances.</t>
+          <t>Connection réussie.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>The 10 most common initial-final diagnosis combinations:</t>
+          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Les 10 combinaisons de diagnostic initial-final les plus courantes :</t>
+          <t>Fichier .acorn sauvegardé sur le serveur. Vous pouvez maintenant explorer les données acorn.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
+          <t>Successfully saved .acorn file locally.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Les « identifiants de patient » suivants sont des cas atypiques (un HCAI/CAI avec HAI précoce mais sans chevauchement) :</t>
+          <t>Fichier .acorn sauvegardé locallement.</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
+          <t>Supply first valid clinical and lab data.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Les 'patient id' suivant sont des cas problématiques (fenêtre de collection de spécimens qui se chevauchent)</t>
+          <t>Fournir en premier lieu des données clinique et de lab valides.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
+          <t>Susceptible and Intermediate are always combined in this visualisation of co-resistances.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Le jeu de données REDCap est vide/au mauvais format. Veuillez contacter l'assistance ACORN.</t>
+          <t>Susceptible et Intermédiaire sont toujours combinés dans cette visualisation des co-résistances.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>The REDCap dataset is in the right format.</t>
+          <t>The 10 most common initial-final diagnosis combinations:</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Le jeu de données REDCap est au bon format.</t>
+          <t>Les 10 combinaisons de diagnostic initial-final les plus courantes :</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>There are D28 follow-up done before the expected D28 date.</t>
+          <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Il y a des suivis à J28 effectués avant la date prévue à J28.</t>
+          <t>Les « identifiants de patient » suivants sont des cas atypiques (un HCAI/CAI avec HAI précoce mais sans chevauchement) :</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
+          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Il existe plusieurs F02 avec un ID ACORN, une date d'admission et une date d'enrôlement identiques.</t>
+          <t>Les 'patient id' suivant sont des cas problématiques (fenêtre de collection de spécimens qui se chevauchent)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
+          <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Il n'y a pas de cas atypique (un HCAI/CAI avec HAI précoce mais pas de chevauchement).</t>
+          <t>Le jeu de données REDCap est vide/au mauvais format. Veuillez contacter l'assistance ACORN.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>There are no D28 follow-up done before the expected D28 date.</t>
+          <t>The REDCap dataset is in the right format.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Il n'y a pas de suivi à J28 effectué avant la date prévue à J28.</t>
+          <t>Le jeu de données REDCap est au bon format.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
+          <t>There are D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Il n'y a pas d'isolat avec des résultats d'AST valides.</t>
+          <t>Il y a des suivis à J28 effectués avant la date prévue à J28.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
+          <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Il n'existe pas de F02 avec un ID ACORN, une date d'admission et une date d'enrôlement identiques.</t>
+          <t>Il existe plusieurs F02 avec un ID ACORN, une date d'admission et une date d'enrôlement identiques.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>There are no problem case (overlapping specimen collection windows)</t>
+          <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Il n'y a pas de cas problématique (fenêtre de collection de spécimens qui se chevauchent)</t>
+          <t>Il n'y a pas de cas atypique (un HCAI/CAI avec HAI précoce mais pas de chevauchement).</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>There are rows for which 'specdate' are after today.</t>
+          <t>There are no D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Il se trouve des enregistrements avec des 'sepcdate' dans le futur.</t>
+          <t>Il n'y a pas de suivi à J28 effectué avant la date prévue à J28.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>There are rows with missing 'orgname'.</t>
+          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Il existe des enregistrements avec des 'orgname' manquant.</t>
+          <t>Il n'y a pas d'isolat avec des résultats d'AST valides.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>There are rows with missing 'patid'.</t>
+          <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Il existe des enregistrements avec des 'patid' manquant.</t>
+          <t>Il n'existe pas de F02 avec un ID ACORN, une date d'admission et une date d'enrôlement identiques.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specdate'.</t>
+          <t>There are no problem case (overlapping specimen collection windows)</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Il existe des enregistrements avec des 'specdate' manquant.</t>
+          <t>Il n'y a pas de cas problématique (fenêtre de collection de spécimens qui se chevauchent)</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specgroup'.</t>
+          <t>There are rows for which 'specdate' are after today.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Il existe des enregistrements avec des 'specgroup' manquant.</t>
+          <t>Il se trouve des enregistrements avec des 'sepcdate' dans le futur.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specid'.</t>
+          <t>There are rows with missing 'orgname'.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Il existe des enregistrements avec des 'specid' manquant.</t>
+          <t>Il existe des enregistrements avec des 'orgname' manquant.</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
+          <t>There are rows with missing 'patid'.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Il y a une erreur critiqe avec les données cliniques. Cette erreur doit être réparée dans REDCap.</t>
+          <t>Il existe des enregistrements avec des 'patid' manquant.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>There is no data to display for this organism.</t>
+          <t>There are rows with missing 'specdate'.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cette organisme n'a pas de données à visualiser</t>
+          <t>Il existe des enregistrements avec des 'specdate' manquant.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>There is no HAI survey data</t>
+          <t>There are rows with missing 'specgroup'.</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Il n'y a pas de données d'enquête HAI</t>
+          <t>Il existe des enregistrements avec des 'specgroup' manquant.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Trying to save .acorn file on server.</t>
+          <t>There are rows with missing 'specid'.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Tentative de sauvegarde du fichier .acorn sur serveur.</t>
+          <t>Il existe des enregistrements avec des 'specid' manquant.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Updated Charlson Comorbidity Index (uCCI)</t>
+          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Updated Charlson Comorbidity Index (uCCI)</t>
+          <t>Il y a une erreur critiqe avec les données cliniques. Cette erreur doit être réparée dans REDCap.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>User</t>
+          <t>There is no data to display for this organism.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Utilisateur</t>
+          <t>Cette organisme n'a pas de données à visualiser</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Variables in Table:</t>
+          <t>There is no HAI survey data</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Variables dans la Table:</t>
+          <t>Il n'y a pas de données d'enquête HAI</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Ward Occupancy Rates</t>
+          <t>Trying to save .acorn file on server.</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Taux d'occupation des services</t>
+          <t>Tentative de sauvegarde du fichier .acorn sur serveur.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
+          <t>Updated Charlson Comorbidity Index (uCCI)</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Le fichier des codes de lab ne peut pas être téléchargé. Merci de contacter l'équipe ACORN.</t>
+          <t>Updated Charlson Comorbidity Index (uCCI)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
+          <t>User</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Le dictionnaire des données de lab ne peut pas être téléchargé. Merci de contacter l'équipe ACORN.</t>
+          <t>Utilisateur</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Welcome</t>
+          <t>Variables in Table:</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Bienvenue</t>
+          <t>Variables dans la Table:</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>What do you want to do?</t>
+          <t>Ward Occupancy Rates</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Comment voulez-vous procéder ?</t>
+          <t>Taux d'occupation des services</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>With Microbiology</t>
+          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Avec Microbiologie</t>
+          <t>Le fichier des codes de lab ne peut pas être téléchargé. Merci de contacter l'équipe ACORN.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Wrong connection credentials.</t>
+          <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Problème avec la connection internet.</t>
+          <t>Le dictionnaire des données de lab ne peut pas être téléchargé. Merci de contacter l'équipe ACORN.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>You are running ACORN dashboard</t>
+          <t>Welcome</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Vous utilisez le tableau de bord ACORN</t>
+          <t>Bienvenue</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>You can check here if it's the latest production release.</t>
+          <t>What do you want to do?</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Vous pouvez vérifier ici s'il s'agit de la dernière version de production.</t>
+          <t>Comment voulez-vous procéder ?</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Your ACORN dashboard is up to date</t>
+          <t>With Microbiology</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Votre tableau de bord ACORN est à jour</t>
+          <t>Avec Microbiologie</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Follow us on Twitter</t>
+          <t>Wrong connection credentials.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Suivez-nous sur Twitter</t>
+          <t>Problème avec la connection internet.</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Records in Lab data and BSI forms:</t>
+          <t>You are running ACORN dashboard</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Enregistrements dans les données de laboratoire et les formulaires BSI:</t>
+          <t>Vous utilisez le tableau de bord ACORN</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ACORN data is not of the right format. Only data generated with v2.1 (or later versions) is compatible.</t>
+          <t>You can check here if it's the latest production release.</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>deleted</t>
+          <t>Vous pouvez vérifier ici s'il s'agit de la dernière version de production.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ACORN data is not of the right format. Only data generated with v2.1 is compatible.</t>
+          <t>Your ACORN dashboard is up to date</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>deleted</t>
+          <t>Votre tableau de bord ACORN est à jour</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
+          <t>Follow us on Twitter</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Suivez-nous sur Twitter</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Records in Lab data and BSI forms:</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Enregistrements dans les données de laboratoire et les formulaires BSI:</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>ACORN data is not of the right format. Only data generated with v2.1 (or later versions) is compatible.</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>ACORN data is not of the right format. Only data generated with v2.1 is compatible.</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
           <t>HAI point prevalence by</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t>Point prévalence HAI par</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t>deleted</t>
         </is>
